--- a/DynamicAutomation/src/main/resources/DATA/AutomationData.xlsx
+++ b/DynamicAutomation/src/main/resources/DATA/AutomationData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,18 +30,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>PunitRanjan</t>
   </si>
   <si>
     <t>ContactLastName</t>
   </si>
+  <si>
+    <t>Punit Ranjan</t>
+  </si>
+  <si>
+    <t>Punit Ranjan256</t>
+  </si>
+  <si>
+    <t>Punit Ranjan2567339</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,20 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A9307-F9BE-42DF-9004-1A8B236F13E5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DynamicAutomation/src/main/resources/DATA/AutomationData.xlsx
+++ b/DynamicAutomation/src/main/resources/DATA/AutomationData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>PunitRanjan</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Punit Ranjan2567339</t>
+  </si>
+  <si>
+    <t>Punit Ranjan25639174</t>
+  </si>
+  <si>
+    <t>Punit Ranjan25644748</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
